--- a/projets.xlsx
+++ b/projets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01 - Architecture\01- En cours\CONSTRUCTION\L2S2\TRAD25\website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652B13DD-1D4E-4026-835D-4C084B61662A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C80DC14-812F-4B5D-9410-038C0FB2E9CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -462,8 +462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -533,7 +533,7 @@
         <v>12.0725</v>
       </c>
       <c r="C2" s="2">
-        <v>-71.716399999999993</v>
+        <v>-70.716399999999993</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
